--- a/3番_チーム制作スケジュール.xlsx
+++ b/3番_チーム制作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2109418\Documents\GitHub\LostBomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9C951-D6A5-4601-93D7-E46042CBD3D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47077A39-59DF-4038-A284-E1023C391685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>12月</t>
     <rPh sb="2" eb="3">
@@ -668,6 +668,19 @@
     <t>秋本</t>
     <rPh sb="0" eb="2">
       <t>アキモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間制限が減るアイテム制作</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンセイゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3710,13 +3723,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:AY33"/>
+  <dimension ref="B1:AY34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC18" sqref="AC18"/>
+      <selection pane="bottomRight" activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4238,19 +4251,23 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" s="12"/>
       <c r="U8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" s="34"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="Z8" s="12">
+        <v>2</v>
+      </c>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
+      <c r="AB8" s="12">
+        <v>2</v>
+      </c>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
@@ -4304,19 +4321,23 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="34"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="Z9" s="12">
+        <v>2</v>
+      </c>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
+      <c r="AB9" s="12">
+        <v>2</v>
+      </c>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
@@ -4510,7 +4531,9 @@
       <c r="C13" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="53">
+        <v>3</v>
+      </c>
       <c r="E13" s="47"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -4527,11 +4550,11 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" s="12"/>
       <c r="U13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" s="34"/>
       <c r="W13" s="12"/>
@@ -4566,12 +4589,13 @@
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="53">
+        <v>3</v>
+      </c>
       <c r="E14" s="47"/>
-      <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -4591,9 +4615,13 @@
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="Z14" s="12">
+        <v>2</v>
+      </c>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
+      <c r="AB14" s="12">
+        <v>2</v>
+      </c>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
@@ -4620,14 +4648,10 @@
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="53">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="47"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4635,9 +4659,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="12">
-        <v>2</v>
-      </c>
+      <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -4680,10 +4702,14 @@
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="53">
+        <v>1</v>
+      </c>
       <c r="E16" s="47"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -4691,7 +4717,9 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="L16" s="12">
+        <v>2</v>
+      </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -4734,7 +4762,7 @@
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="53"/>
@@ -4788,7 +4816,7 @@
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="53"/>
@@ -4842,14 +4870,10 @@
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="53">
-        <v>6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="47"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -4859,27 +4883,19 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="12">
-        <v>2</v>
-      </c>
+      <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="12">
-        <v>1</v>
-      </c>
+      <c r="S19" s="12"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="6">
-        <v>1</v>
-      </c>
+      <c r="U19" s="6"/>
       <c r="V19" s="34"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="12">
-        <v>1</v>
-      </c>
+      <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
@@ -4911,7 +4927,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="53">
         <v>6</v>
@@ -4933,21 +4949,23 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" s="12"/>
       <c r="U20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="34"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
+      <c r="AB20" s="12">
+        <v>3</v>
+      </c>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
@@ -4974,10 +4992,14 @@
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="53"/>
+        <v>42</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="53">
+        <v>6</v>
+      </c>
       <c r="E21" s="47"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -4987,21 +5009,31 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="N21" s="12">
+        <v>2</v>
+      </c>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="S21" s="12">
+        <v>2</v>
+      </c>
       <c r="T21" s="12"/>
-      <c r="U21" s="6"/>
+      <c r="U21" s="6">
+        <v>2</v>
+      </c>
       <c r="V21" s="34"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
+      <c r="Z21" s="12">
+        <v>2</v>
+      </c>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
+      <c r="AB21" s="12">
+        <v>2</v>
+      </c>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
@@ -5028,7 +5060,7 @@
     </row>
     <row r="22" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="53"/>
@@ -5082,7 +5114,7 @@
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="53"/>
@@ -5135,7 +5167,9 @@
       <c r="AY23" s="6"/>
     </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="32"/>
       <c r="D24" s="53"/>
       <c r="E24" s="47"/>
@@ -5187,9 +5221,7 @@
       <c r="AY24" s="6"/>
     </row>
     <row r="25" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B25" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="32"/>
       <c r="D25" s="53"/>
       <c r="E25" s="47"/>
@@ -5241,7 +5273,9 @@
       <c r="AY25" s="6"/>
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="32"/>
       <c r="D26" s="53"/>
       <c r="E26" s="47"/>
@@ -5396,66 +5430,118 @@
       <c r="AX28" s="12"/>
       <c r="AY28" s="6"/>
     </row>
-    <row r="29" spans="2:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="5"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B29" s="7"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="6"/>
+    </row>
+    <row r="30" spans="2:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="5"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:U1"/>
     <mergeCell ref="V1:AY1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4:AY12 E14:AY29 E13 G13:AY13">
+  <conditionalFormatting sqref="E4:AY12 E15:AY30 E13:E14 G13:AY14">
     <cfRule type="cellIs" dxfId="2" priority="1708" operator="equal">
       <formula>3</formula>
     </cfRule>

--- a/3番_チーム制作スケジュール.xlsx
+++ b/3番_チーム制作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2109418\Documents\GitHub\LostBomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47077A39-59DF-4038-A284-E1023C391685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBC4B5A-9F14-41F4-A83D-94D622C4AD68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>12月</t>
     <rPh sb="2" eb="3">
@@ -681,6 +681,79 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画像制作</t>
+    <rPh sb="4" eb="8">
+      <t>ガゾウセイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濵本</t>
+    <rPh sb="0" eb="2">
+      <t>ハマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア画像</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー画像</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濱本</t>
+    <rPh sb="0" eb="2">
+      <t>ハマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル制作その２</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹崎</t>
+    <rPh sb="0" eb="2">
+      <t>タケザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本</t>
+    <rPh sb="0" eb="2">
+      <t>マツモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの差し替え</t>
+    <rPh sb="6" eb="7">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋本</t>
+    <rPh sb="0" eb="2">
+      <t>アキモト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3723,13 +3796,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:AY34"/>
+  <dimension ref="B1:AY36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE18" sqref="AE18"/>
+      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4230,7 +4303,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="12"/>
@@ -4300,7 +4373,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="12"/>
@@ -4364,9 +4437,11 @@
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="D10" s="53"/>
       <c r="E10" s="47"/>
       <c r="F10" s="12"/>
@@ -4396,16 +4471,24 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
+      <c r="AG10" s="12">
+        <v>2</v>
+      </c>
       <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
+      <c r="AI10" s="12">
+        <v>2</v>
+      </c>
       <c r="AJ10" s="12"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="12"/>
       <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
+      <c r="AN10" s="12">
+        <v>1</v>
+      </c>
       <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
+      <c r="AP10" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
       <c r="AS10" s="12"/>
@@ -4418,9 +4501,11 @@
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" s="53"/>
       <c r="E11" s="47"/>
       <c r="F11" s="12"/>
@@ -4450,16 +4535,24 @@
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
+      <c r="AG11" s="12">
+        <v>2</v>
+      </c>
       <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
+      <c r="AI11" s="12">
+        <v>2</v>
+      </c>
       <c r="AJ11" s="12"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
+      <c r="AN11" s="12">
+        <v>1</v>
+      </c>
       <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
+      <c r="AP11" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ11" s="12"/>
       <c r="AR11" s="12"/>
       <c r="AS11" s="12"/>
@@ -4470,9 +4563,9 @@
       <c r="AX11" s="12"/>
       <c r="AY11" s="6"/>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="53"/>
@@ -4526,15 +4619,12 @@
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="53">
-        <v>3</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="47"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -4542,20 +4632,14 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="12">
-        <v>2</v>
-      </c>
+      <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="12">
-        <v>2</v>
-      </c>
+      <c r="S13" s="12"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="6">
-        <v>2</v>
-      </c>
+      <c r="U13" s="6"/>
       <c r="V13" s="34"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -4589,9 +4673,11 @@
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="D14" s="53">
         <v>3</v>
       </c>
@@ -4603,25 +4689,27 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="N14" s="12">
+        <v>2</v>
+      </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="S14" s="12">
+        <v>2</v>
+      </c>
       <c r="T14" s="12"/>
-      <c r="U14" s="6"/>
+      <c r="U14" s="6">
+        <v>2</v>
+      </c>
       <c r="V14" s="34"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
-      <c r="Z14" s="12">
-        <v>2</v>
-      </c>
+      <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="12">
-        <v>2</v>
-      </c>
+      <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
@@ -4648,12 +4736,13 @@
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="53"/>
+      <c r="D15" s="53">
+        <v>2</v>
+      </c>
       <c r="E15" s="47"/>
-      <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -4673,9 +4762,13 @@
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="Z15" s="12">
+        <v>2</v>
+      </c>
       <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
+      <c r="AB15" s="12">
+        <v>2</v>
+      </c>
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
@@ -4702,14 +4795,10 @@
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="53">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="47"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -4717,9 +4806,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="12">
-        <v>2</v>
-      </c>
+      <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -4762,10 +4849,14 @@
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="53">
+        <v>1</v>
+      </c>
       <c r="E17" s="47"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -4773,7 +4864,9 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="L17" s="12">
+        <v>2</v>
+      </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -4816,7 +4909,7 @@
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="53"/>
@@ -4870,7 +4963,7 @@
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="53"/>
@@ -4924,14 +5017,12 @@
     </row>
     <row r="20" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="53">
-        <v>6</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D20" s="53"/>
       <c r="E20" s="47"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -4941,31 +5032,21 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="12">
-        <v>2</v>
-      </c>
+      <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="12">
-        <v>2</v>
-      </c>
+      <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="6">
-        <v>2</v>
-      </c>
+      <c r="U20" s="6"/>
       <c r="V20" s="34"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="12">
-        <v>2</v>
-      </c>
+      <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="12">
-        <v>3</v>
-      </c>
+      <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
@@ -4977,9 +5058,13 @@
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
+      <c r="AN20" s="12">
+        <v>1</v>
+      </c>
       <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
+      <c r="AP20" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ20" s="12"/>
       <c r="AR20" s="12"/>
       <c r="AS20" s="12"/>
@@ -4992,14 +5077,10 @@
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="53">
-        <v>6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="47"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -5009,31 +5090,21 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="12">
-        <v>2</v>
-      </c>
+      <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="12">
-        <v>2</v>
-      </c>
+      <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="6">
-        <v>2</v>
-      </c>
+      <c r="U21" s="6"/>
       <c r="V21" s="34"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="12">
-        <v>2</v>
-      </c>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="12">
-        <v>2</v>
-      </c>
+      <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
@@ -5060,10 +5131,14 @@
     </row>
     <row r="22" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="53"/>
+        <v>42</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="53">
+        <v>6</v>
+      </c>
       <c r="E22" s="47"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -5073,35 +5148,53 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="N22" s="12">
+        <v>2</v>
+      </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
+      <c r="S22" s="12">
+        <v>2</v>
+      </c>
       <c r="T22" s="12"/>
-      <c r="U22" s="6"/>
+      <c r="U22" s="6">
+        <v>2</v>
+      </c>
       <c r="V22" s="34"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
+      <c r="Z22" s="12">
+        <v>2</v>
+      </c>
       <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
+      <c r="AB22" s="12">
+        <v>3</v>
+      </c>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
+      <c r="AG22" s="12">
+        <v>2</v>
+      </c>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
+      <c r="AI22" s="12">
+        <v>2</v>
+      </c>
       <c r="AJ22" s="12"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
+      <c r="AN22" s="12">
+        <v>1</v>
+      </c>
       <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
+      <c r="AP22" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ22" s="12"/>
       <c r="AR22" s="12"/>
       <c r="AS22" s="12"/>
@@ -5114,10 +5207,14 @@
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="53"/>
+        <v>42</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="53">
+        <v>7</v>
+      </c>
       <c r="E23" s="47"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -5127,28 +5224,42 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="N23" s="12">
+        <v>2</v>
+      </c>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
+      <c r="S23" s="12">
+        <v>2</v>
+      </c>
       <c r="T23" s="12"/>
-      <c r="U23" s="6"/>
+      <c r="U23" s="6">
+        <v>2</v>
+      </c>
       <c r="V23" s="34"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
+      <c r="Z23" s="12">
+        <v>2</v>
+      </c>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
+      <c r="AB23" s="12">
+        <v>2</v>
+      </c>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="12">
+        <v>2</v>
+      </c>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
+      <c r="AI23" s="12">
+        <v>2</v>
+      </c>
       <c r="AJ23" s="12"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
@@ -5168,7 +5279,7 @@
     </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="53"/>
@@ -5221,7 +5332,9 @@
       <c r="AY24" s="6"/>
     </row>
     <row r="25" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="C25" s="32"/>
       <c r="D25" s="53"/>
       <c r="E25" s="47"/>
@@ -5274,7 +5387,7 @@
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="53"/>
@@ -5379,7 +5492,9 @@
       <c r="AY27" s="6"/>
     </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C28" s="32"/>
       <c r="D28" s="53"/>
       <c r="E28" s="47"/>
@@ -5431,8 +5546,12 @@
       <c r="AY28" s="6"/>
     </row>
     <row r="29" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B29" s="7"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="D29" s="53"/>
       <c r="E29" s="47"/>
       <c r="F29" s="12"/>
@@ -5462,16 +5581,24 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
+      <c r="AG29" s="12">
+        <v>2</v>
+      </c>
       <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
+      <c r="AI29" s="12">
+        <v>2</v>
+      </c>
       <c r="AJ29" s="12"/>
       <c r="AK29" s="12"/>
       <c r="AL29" s="12"/>
       <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
+      <c r="AN29" s="12">
+        <v>1</v>
+      </c>
       <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
+      <c r="AP29" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ29" s="12"/>
       <c r="AR29" s="12"/>
       <c r="AS29" s="12"/>
@@ -5482,66 +5609,178 @@
       <c r="AX29" s="12"/>
       <c r="AY29" s="6"/>
     </row>
-    <row r="30" spans="2:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="5"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="6"/>
+    </row>
+    <row r="31" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="6"/>
+    </row>
+    <row r="32" spans="2:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="13"/>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="13"/>
+      <c r="AY32" s="5"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:U1"/>
     <mergeCell ref="V1:AY1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4:AY12 E15:AY30 E13:E14 G13:AY14">
+  <conditionalFormatting sqref="E16:AY32 E14:E15 G14:AY15 E4:AY13">
     <cfRule type="cellIs" dxfId="2" priority="1708" operator="equal">
       <formula>3</formula>
     </cfRule>
